--- a/整合結果/EPU匯出結果/2025-06-10/2025-06-10_自由時報_EPU檢查結果.xlsx
+++ b/整合結果/EPU匯出結果/2025-06-10/2025-06-10_自由時報_EPU檢查結果.xlsx
@@ -168,12 +168,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$21:$A$22</f>
+              <f>'Sheet1'!$A$26:$A$27</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$21:$B$22</f>
+              <f>'Sheet1'!$B$26:$B$27</f>
             </numRef>
           </val>
         </ser>
@@ -249,7 +249,7 @@
     <from>
       <col>3</col>
       <colOff>0</colOff>
-      <row>20</row>
+      <row>25</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -559,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1123,42 +1123,207 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-06-10_0823_自由時報_財經_黃金自1週低點反彈上漲！但「1情況」恐不利.txt</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>美元、貿易、經濟</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>CPI、Fed、央行、降息、消費者物價指數、聯準會</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>反彈、疲軟、通膨</t>
+        </is>
+      </c>
+    </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>統計摘要</t>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-06-10_1112_自由時報_財經_第一次看房要注意啥？美資深房仲教你5招破解「表面裝潢陷阱」.txt</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>房地產、經濟、電力</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>考驗、潛在風險</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>✔ 符合 EPU</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-06-10_1556_自由時報_財經_市值型ETF「銅板化」 法人看報酬率穩定度更重要.txt</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>台股、台積電、經濟</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>市場震盪、波動</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>✘ 不符合 EPU</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>15</v>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-06-10_1624_自由時報_財經_房市買氣未見起色 建商盼解除房貸管制.txt</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>房市、房貸、經濟</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>央行、信用管制、川普關稅</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-06-10_1859_自由時報_財經_首檔ETF分割完成 00663L明恢復交易.txt</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>台股、經濟</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>反彈、低於預期、須留意</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>統計摘要</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>✔ 符合 EPU</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>✘ 不符合 EPU</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>EPU 比例</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>11.76%</t>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>13.64%</t>
         </is>
       </c>
     </row>
